--- a/meta/objects2/BlancoValueObjectPhpSimpleSample2.xlsx
+++ b/meta/objects2/BlancoValueObjectPhpSimpleSample2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/objects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoValueObjectKt/meta/objects2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1C8E07-5766-A541-90D1-B8682BF579E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6398E531-560F-7148-A606-CCC24DA11533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5000" yWindow="2960" windowWidth="21680" windowHeight="11800" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>クラス名</t>
   </si>
@@ -184,6 +184,27 @@
   </si>
   <si>
     <t>SimpleSample2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>総称型</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ソウショウガタ </t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※ クラスのGenericを定義するために使用します。</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">テイギスル </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シヨウシマス。 </t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -647,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -745,6 +766,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1155,10 +1181,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1223,27 +1249,28 @@
       <c r="E7" s="11"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="8"/>
+    <row r="8" spans="1:10" s="34" customFormat="1">
+      <c r="A8" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="34" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1251,22 +1278,23 @@
       <c r="G9" s="12"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:10" s="34" customFormat="1">
-      <c r="A10" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:10" s="34" customFormat="1">
       <c r="A11" s="40" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="42" t="s">
@@ -1277,112 +1305,113 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+    <row r="12" spans="1:10" s="34" customFormat="1">
+      <c r="A12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A17" s="52" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" customHeight="1">
+      <c r="A18" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B18" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C18" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D18" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E18" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F18" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="51"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
       <c r="G18" s="51"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="29"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="30"/>
       <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10">
@@ -1394,7 +1423,7 @@
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10">
@@ -1422,36 +1451,48 @@
       <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="24"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E40" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{9B350086-4234-7F42-90E1-E9696B21763F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{9B350086-4234-7F42-90E1-E9696B21763F}">
       <formula1>adjustFiledName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{37676737-95C3-434E-BC4C-270691A9AC5F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11" xr:uid="{37676737-95C3-434E-BC4C-270691A9AC5F}">
       <formula1>createToString</formula1>
     </dataValidation>
   </dataValidations>
